--- a/biology/Médecine/Iana_Zinkevytch/Iana_Zinkevytch.xlsx
+++ b/biology/Médecine/Iana_Zinkevytch/Iana_Zinkevytch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iana Zinkevytch (en ukrainien : Яна Вадимівна Зінкевич), née le 2 juillet 1995 à Rivne, est une médecin, activiste et personnalité politique ukrainienne.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a fait ses études de médecine à l'Université médicale d'État de Dnipro. Fondatrice du Bataillon médical des Hospitaliers[1] en 2014, elle fut élue sous l'étiquette Solidarité européenne pour la IXe Rada ukrainienne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fait ses études de médecine à l'Université médicale d'État de Dnipro. Fondatrice du Bataillon médical des Hospitaliers en 2014, elle fut élue sous l'étiquette Solidarité européenne pour la IXe Rada ukrainienne.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est élue sur la liste des « 100 femmes de 2022 » par la BBC[2].
-Décorée de l'Ordre du Mérite (Ukraine)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est élue sur la liste des « 100 femmes de 2022 » par la BBC.
+Décorée de l'Ordre du Mérite (Ukraine).
 </t>
         </is>
       </c>
